--- a/data/trans_dic/P19E_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19E_R-Estudios-trans_dic.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>49,12; 56,43</t>
+          <t>48,74; 56,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>43,75; 52,26</t>
+          <t>44,02; 52,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>36,85; 43,31</t>
+          <t>37,02; 43,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>32,48; 38,12</t>
+          <t>32,69; 37,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>42,99; 48,01</t>
+          <t>43,25; 48,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>38,18; 42,61</t>
+          <t>37,9; 42,56</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>30,45; 34,76</t>
+          <t>30,17; 34,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,31; 24,66</t>
+          <t>20,22; 24,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,13; 22,0</t>
+          <t>18,12; 21,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,26; 13,46</t>
+          <t>9,99; 13,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,86; 27,73</t>
+          <t>24,86; 27,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,56; 18,51</t>
+          <t>15,62; 18,61</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,67; 24,57</t>
+          <t>16,79; 23,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,42; 18,95</t>
+          <t>12,31; 19,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,26; 13,53</t>
+          <t>8,1; 13,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,72; 9,16</t>
+          <t>5,56; 8,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,33; 17,95</t>
+          <t>13,17; 17,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,42; 13,12</t>
+          <t>9,53; 13,07</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>33,04; 36,52</t>
+          <t>33,01; 36,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,24; 26,87</t>
+          <t>23,3; 26,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,51; 25,46</t>
+          <t>22,51; 25,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,46; 17,26</t>
+          <t>14,22; 17,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,04; 30,25</t>
+          <t>28,08; 30,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,08; 21,41</t>
+          <t>18,99; 21,35</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19E_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19E_R-Estudios-trans_dic.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>48,74; 56,27</t>
+          <t>49,02; 56,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>37,02; 43,81</t>
+          <t>36,89; 43,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>43,25; 48,2</t>
+          <t>43,07; 47,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>30,17; 34,53</t>
+          <t>30,41; 34,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,12; 21,49</t>
+          <t>18,08; 21,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,86; 27,67</t>
+          <t>24,89; 27,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,79; 23,99</t>
+          <t>16,69; 24,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,1; 13,5</t>
+          <t>7,84; 13,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,17; 17,48</t>
+          <t>13,02; 17,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>33,01; 36,49</t>
+          <t>32,92; 36,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,51; 25,56</t>
+          <t>22,5; 25,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,08; 30,44</t>
+          <t>28,1; 30,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">

--- a/data/trans_dic/P19E_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19E_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>49,02; 56,32</t>
+          <t>49,12; 56,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>44,02; 52,16</t>
+          <t>43,75; 52,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>36,89; 43,66</t>
+          <t>36,85; 43,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>32,69; 37,63</t>
+          <t>32,48; 38,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>43,07; 47,89</t>
+          <t>42,99; 48,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>37,9; 42,56</t>
+          <t>38,18; 42,61</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>30,41; 34,79</t>
+          <t>30,45; 34,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,22; 24,82</t>
+          <t>20,31; 24,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,08; 21,79</t>
+          <t>18,13; 22,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,99; 13,41</t>
+          <t>10,26; 13,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,89; 27,76</t>
+          <t>24,86; 27,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,62; 18,61</t>
+          <t>15,56; 18,51</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,69; 24,09</t>
+          <t>16,67; 24,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,31; 19,0</t>
+          <t>12,42; 18,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,84; 13,13</t>
+          <t>8,26; 13,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,56; 8,97</t>
+          <t>5,72; 9,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,02; 17,58</t>
+          <t>13,33; 17,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,53; 13,07</t>
+          <t>9,42; 13,12</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>32,92; 36,36</t>
+          <t>33,04; 36,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,3; 26,84</t>
+          <t>23,24; 26,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,5; 25,58</t>
+          <t>22,51; 25,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,22; 17,16</t>
+          <t>14,46; 17,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,1; 30,33</t>
+          <t>28,04; 30,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,99; 21,35</t>
+          <t>19,08; 21,41</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19E_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19E_R-Estudios-trans_dic.xlsx
@@ -606,7 +606,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>48,09%</t>
+          <t>48,61%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>35,2%</t>
+          <t>35,78%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>40,29%</t>
+          <t>41,0%</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>43,75; 52,26</t>
+          <t>44,04; 52,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>32,48; 38,12</t>
+          <t>33,1; 38,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>38,18; 42,61</t>
+          <t>38,87; 43,31</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>22,59%</t>
+          <t>20,84%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>11,29%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,19%</t>
+          <t>16,12%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,31; 24,66</t>
+          <t>13,57; 24,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,26; 13,46</t>
+          <t>8,39; 13,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,56; 18,51</t>
+          <t>13,03; 18,09</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,28%</t>
+          <t>16,1%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>11,59%</t>
         </is>
       </c>
     </row>
@@ -804,7 +804,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,42; 18,95</t>
+          <t>12,89; 20,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -814,7 +814,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,72; 9,16</t>
+          <t>5,72; 9,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,42; 13,12</t>
+          <t>9,77; 14,17</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>25,17%</t>
+          <t>24,04%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,11%</t>
+          <t>15,53%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,38%</t>
+          <t>19,67%</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,24; 26,87</t>
+          <t>18,28; 26,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,46; 17,26</t>
+          <t>12,65; 17,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,08; 21,41</t>
+          <t>17,11; 21,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19E_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19E_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>49,12; 56,43</t>
+          <t>48,82; 56,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>44,04; 52,92</t>
+          <t>44,2; 52,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>36,85; 43,31</t>
+          <t>36,82; 43,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>33,1; 38,63</t>
+          <t>33,18; 38,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>42,99; 48,01</t>
+          <t>43,08; 48,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>38,87; 43,31</t>
+          <t>38,44; 43,25</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>30,45; 34,76</t>
+          <t>30,22; 34,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,57; 24,04</t>
+          <t>14,75; 24,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,13; 22,0</t>
+          <t>17,96; 21,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,39; 13,22</t>
+          <t>8,19; 13,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,86; 27,73</t>
+          <t>24,65; 27,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,03; 18,09</t>
+          <t>12,65; 17,97</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,67; 24,57</t>
+          <t>16,78; 24,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,89; 20,85</t>
+          <t>12,92; 20,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,26; 13,53</t>
+          <t>7,97; 13,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,72; 9,22</t>
+          <t>5,65; 8,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,33; 17,95</t>
+          <t>13,04; 17,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,77; 14,17</t>
+          <t>9,88; 14,02</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>33,04; 36,52</t>
+          <t>33,05; 36,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,28; 26,64</t>
+          <t>18,72; 26,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,51; 25,46</t>
+          <t>22,55; 25,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,65; 17,1</t>
+          <t>12,79; 17,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,04; 30,25</t>
+          <t>28,12; 30,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,11; 21,22</t>
+          <t>16,69; 21,09</t>
         </is>
       </c>
     </row>
@@ -928,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se cepilla los dientes una o ninguna vez al día</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>375007</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>246523</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>382617</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>264307</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>757624</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>510830</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>348335; 400095</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>224148; 266457</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>350242; 415376</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>245127; 284873</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>717181; 800213</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>478939; 538864</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>977</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>912</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>656205</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>476027</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>385880</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>252392</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1042086</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>728420</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>613073; 699580</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>336899; 549993</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>349814; 422524</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>183075; 294703</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>980184; 1097302</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>571644; 812091</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>108528</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>103983</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>57166</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>47362</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>165693</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>151344</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>90517; 129838</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>83419; 132868</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>43358; 72178</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>37278; 59139</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>141256; 190126</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>129046; 183097</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1084</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>947</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>767</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1017</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1851</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1139740</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>826533</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>825663</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>564061</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1965403</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1390594</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1084383; 1197717</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>643590; 917660</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>776560; 878521</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>464526; 620049</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1890636; 2038635</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1180204; 1491340</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>